--- a/lab07/data2.xlsx
+++ b/lab07/data2.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twes1\Documents\RIT_fall_2023\CMPE460\cmpe460-reports\lab07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2063BA-E2F5-4B7E-8EE2-60BC00804469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>PART1</t>
   </si>
@@ -78,50 +100,22 @@
   <si>
     <t>PART8</t>
   </si>
+  <si>
+    <t>Phase Adjusted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
-    <numFmt numFmtId="60" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="13"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -158,32 +152,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,29 +170,89 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ffbfbfbf"/>
-      <rgbColor rgb="ff595959"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -223,7 +261,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -231,7 +269,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -246,10 +284,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.328974"/>
+          <c:x val="0.32897399999999999"/>
           <c:y val="0"/>
-          <c:w val="0.342051"/>
-          <c:h val="0.125296"/>
+          <c:w val="0.34205099999999999"/>
+          <c:h val="0.12529599999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -258,17 +296,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806413"/>
-          <c:y val="0.125296"/>
-          <c:w val="0.88086"/>
-          <c:h val="0.799284"/>
+          <c:x val="8.0641299999999999E-2"/>
+          <c:y val="0.12529599999999999"/>
+          <c:w val="0.88085999999999998"/>
+          <c:h val="0.79928399999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -281,9 +319,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -310,109 +345,99 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet1'!$A$49:$A$58</c:f>
+              <c:f>Sheet1!$A$49:$A$58</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100.000000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.000000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000.000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000.000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000.000000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000.000000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000.000000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200000.000000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300000.000000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500000.000000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet1'!$C$49:$C$58</c:f>
+              <c:f>Sheet1!$C$49:$C$58</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.960531</c:v>
+                  <c:v>6.9605311668040946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.715842</c:v>
+                  <c:v>6.7158420384638617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.375175</c:v>
+                  <c:v>6.3751752524882557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.375175</c:v>
+                  <c:v>6.3751752524882557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.105450</c:v>
+                  <c:v>5.1054501020661212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.244689</c:v>
+                  <c:v>0.2446891283402336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.633401</c:v>
+                  <c:v>-1.6334009290263916</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.053507</c:v>
+                  <c:v>-10.05350718384101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-16.901961</c:v>
+                  <c:v>-16.901960800285135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-24.860761</c:v>
+                  <c:v>-24.860760973725885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A360-4B95-8FC2-91783BD96B9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:scatterChart>
@@ -452,13 +477,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
@@ -503,13 +529,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -529,6 +556,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -543,13 +571,387 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>phase vs frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$75:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$75:$E$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0619-4AC9-8979-40D17B076D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="359070767"/>
+        <c:axId val="659196271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="359070767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659196271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="659196271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359070767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -558,7 +960,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -566,7 +968,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -581,10 +983,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.349754"/>
+          <c:x val="0.34975400000000001"/>
           <c:y val="0"/>
-          <c:w val="0.300491"/>
-          <c:h val="0.125296"/>
+          <c:w val="0.30049100000000001"/>
+          <c:h val="0.12529599999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -593,17 +995,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.075373"/>
-          <c:y val="0.125296"/>
-          <c:w val="0.885664"/>
-          <c:h val="0.799284"/>
+          <c:x val="7.5372999999999996E-2"/>
+          <c:y val="0.12529599999999999"/>
+          <c:w val="0.88566400000000001"/>
+          <c:h val="0.79928399999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -616,9 +1018,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -645,109 +1044,99 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet1'!$A$49:$A$58</c:f>
+              <c:f>Sheet1!$A$49:$A$58</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100.000000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.000000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000.000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000.000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000.000000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000.000000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000.000000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200000.000000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300000.000000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500000.000000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet1'!$D$49:$D$58</c:f>
+              <c:f>Sheet1!$D$49:$D$58</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.700000</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.500000</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.000000</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.500000</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.200000</c:v>
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175.400000</c:v>
+                  <c:v>175.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>177.700000</c:v>
+                  <c:v>177.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-169.000000</c:v>
+                  <c:v>-169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-154.700000</c:v>
+                  <c:v>-154.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-123.000000</c:v>
+                  <c:v>-123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5567-45D5-B460-5985BE150A0E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:scatterChart>
@@ -787,13 +1176,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
@@ -838,13 +1228,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -864,6 +1255,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -878,13 +1270,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -893,7 +1292,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -901,7 +1300,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -916,10 +1315,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.328974"/>
+          <c:x val="0.32897399999999999"/>
           <c:y val="0"/>
-          <c:w val="0.342051"/>
-          <c:h val="0.125296"/>
+          <c:w val="0.34205099999999999"/>
+          <c:h val="0.12529599999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -928,17 +1327,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806413"/>
-          <c:y val="0.125296"/>
-          <c:w val="0.88086"/>
-          <c:h val="0.799284"/>
+          <c:x val="8.0641299999999999E-2"/>
+          <c:y val="0.12529599999999999"/>
+          <c:w val="0.88085999999999998"/>
+          <c:h val="0.79928399999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -951,9 +1350,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -980,109 +1376,99 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet1'!$A$62:$A$71</c:f>
+              <c:f>Sheet1!$A$62:$A$71</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100.000000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.000000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000.000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000.000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000.000000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000.000000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000.000000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200000.000000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300000.000000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500000.000000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet1'!$C$62:$C$71</c:f>
+              <c:f>Sheet1!$C$62:$C$71</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-20.469622</c:v>
+                  <c:v>-20.469621916990455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20.278716</c:v>
+                  <c:v>-20.278715558865848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.575072</c:v>
+                  <c:v>-5.575072019056579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.105450</c:v>
+                  <c:v>5.1054501020661212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.156097</c:v>
+                  <c:v>5.1560968323740228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.689280</c:v>
+                  <c:v>4.6892799823022004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.473470</c:v>
+                  <c:v>4.473470380632075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.383728</c:v>
+                  <c:v>2.3837281543841735</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.270049</c:v>
+                  <c:v>0.27004940807294264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.032976</c:v>
+                  <c:v>-3.0329760517604254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-167A-4E8A-B59D-60BFEC0975C1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:scatterChart>
@@ -1122,348 +1508,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2094734553"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="125000"/>
-        <c:minorUnit val="62500"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2094734553"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="12700" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="12700" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2094734552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="9.375"/>
-        <c:minorUnit val="4.6875"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="12700" cap="flat">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>phase vs frequency</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.349754"/>
-          <c:y val="0"/>
-          <c:w val="0.300491"/>
-          <c:h val="0.125296"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.075373"/>
-          <c:y val="0.125296"/>
-          <c:w val="0.885664"/>
-          <c:h val="0.799284"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Series1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet1'!$A$62:$A$71</c:f>
-              <c:numCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100.000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500.000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000.000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000.000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000.000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80000.000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000.000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200000.000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300000.000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000.000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet1'!$D$62:$D$71</c:f>
-              <c:numCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-334.000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-423.000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-140.000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-10.000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>72.000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2094734552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="12700" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="12700" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
@@ -1508,20 +1560,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="156.25"/>
-        <c:minorUnit val="78.125"/>
+        <c:majorUnit val="9.375"/>
+        <c:minorUnit val="4.6875"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1534,6 +1587,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1548,13 +1602,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1563,7 +1624,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1571,13 +1632,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>gain vs frequency</a:t>
+              <a:t>phase vs frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1586,10 +1647,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.364933"/>
+          <c:x val="0.34975400000000001"/>
           <c:y val="0"/>
-          <c:w val="0.270134"/>
-          <c:h val="0.125296"/>
+          <c:w val="0.30049100000000001"/>
+          <c:h val="0.12529599999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1598,17 +1659,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0732573"/>
-          <c:y val="0.125296"/>
-          <c:w val="0.881996"/>
-          <c:h val="0.799284"/>
+          <c:x val="7.5372999999999996E-2"/>
+          <c:y val="0.12529599999999999"/>
+          <c:w val="0.88566400000000001"/>
+          <c:h val="0.79928399999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1621,9 +1682,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1650,109 +1708,99 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet1'!$A$75:$A$84</c:f>
+              <c:f>Sheet1!$A$62:$A$71</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>500.000000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000.000000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000.000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000.000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000.000000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000.000000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000.000000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200000.000000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500000.000000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000000.000000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet1'!$B$75:$B$84</c:f>
+              <c:f>Sheet1!$D$62:$D$71</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.046667</c:v>
+                  <c:v>-334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.073333</c:v>
+                  <c:v>-423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.423333</c:v>
+                  <c:v>-140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.936667</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.916667</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.833333</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.543333</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.270000</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.146667</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF23-49C4-A0D8-915B740CE9B3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:scatterChart>
@@ -1792,13 +1840,346 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734553"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="125000"/>
+        <c:minorUnit val="62500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2094734553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="156.25"/>
+        <c:minorUnit val="78.125"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>gain vs frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36493300000000001"/>
+          <c:y val="0"/>
+          <c:w val="0.27013399999999999"/>
+          <c:h val="0.12529599999999999"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3257299999999997E-2"/>
+          <c:y val="0.12529599999999999"/>
+          <c:w val="0.881996"/>
+          <c:h val="0.79928399999999999"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$75:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$75:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.6666666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F002-4332-97C4-32F6E3B8D323}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2094734552"/>
+        <c:axId val="2094734553"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2094734552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
@@ -1843,13 +2224,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -1869,6 +2251,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1883,13 +2266,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1898,7 +2288,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1906,7 +2296,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1921,10 +2311,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.349754"/>
+          <c:x val="0.34975400000000001"/>
           <c:y val="0"/>
-          <c:w val="0.300491"/>
-          <c:h val="0.125296"/>
+          <c:w val="0.30049100000000001"/>
+          <c:h val="0.12529599999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1933,17 +2323,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.075373"/>
-          <c:y val="0.125296"/>
-          <c:w val="0.885664"/>
-          <c:h val="0.799284"/>
+          <c:x val="7.5372999999999996E-2"/>
+          <c:y val="0.12529599999999999"/>
+          <c:w val="0.88566400000000001"/>
+          <c:h val="0.79928399999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1956,9 +2346,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1985,97 +2372,87 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet1'!$A$75:$A$82</c:f>
+              <c:f>Sheet1!$A$75:$A$82</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>500.000000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000.000000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000.000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000.000000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000.000000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000.000000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000.000000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200000.000000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet1'!$D$75:$D$82</c:f>
+              <c:f>Sheet1!$D$75:$D$82</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>134.000000</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130.000000</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.000000</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.000000</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.000000</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-150.000000</c:v>
+                  <c:v>-150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-140.000000</c:v>
+                  <c:v>-140</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-120.000000</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE78-4565-816D-D5921601B7C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:scatterChart>
@@ -2115,13 +2492,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
@@ -2166,13 +2544,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -2192,6 +2571,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2206,13 +2586,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2221,7 +2608,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2229,7 +2616,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2244,10 +2631,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.330026"/>
+          <c:x val="0.33002599999999999"/>
           <c:y val="0"/>
           <c:w val="0.339947"/>
-          <c:h val="0.125296"/>
+          <c:h val="0.12529599999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2256,17 +2643,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0801452"/>
-          <c:y val="0.125296"/>
-          <c:w val="0.875441"/>
-          <c:h val="0.799284"/>
+          <c:x val="8.01452E-2"/>
+          <c:y val="0.12529599999999999"/>
+          <c:w val="0.87544100000000002"/>
+          <c:h val="0.79928399999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2279,9 +2666,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2308,109 +2692,99 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet1'!$A$75:$A$84</c:f>
+              <c:f>Sheet1!$A$75:$A$84</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>500.000000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000.000000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000.000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000.000000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000.000000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000.000000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000.000000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200000.000000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500000.000000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000000.000000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet1'!$C$75:$C$84</c:f>
+              <c:f>Sheet1!$C$75:$C$84</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-26.619864</c:v>
+                  <c:v>-26.619864380828488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-22.693971</c:v>
+                  <c:v>-22.693971477949123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.466351</c:v>
+                  <c:v>-7.4663506752741116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.521825</c:v>
+                  <c:v>-3.5218251811136252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.568299</c:v>
+                  <c:v>-0.56829869629165108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.755771</c:v>
+                  <c:v>-0.75577121778799605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.583625</c:v>
+                  <c:v>-1.583624920952496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.298673</c:v>
+                  <c:v>-5.2986730063140932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11.372725</c:v>
+                  <c:v>-11.372724716820253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-16.673372</c:v>
+                  <c:v>-16.673371564669498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81AE-4182-A2F7-28B3D0ADF2A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:scatterChart>
@@ -2450,13 +2824,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
@@ -2501,13 +2876,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -2527,6 +2903,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2541,11 +2918,2418 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>gain vs frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$62:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$62:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.4736842105263161E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6842105263157896E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8105263157894738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7157894736842105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6736842105263159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3157894736842106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0315789473684212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70526315789473693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-176C-4BF6-BB45-E5DAEA0136D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="359133167"/>
+        <c:axId val="526788575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="359133167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526788575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="526788575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359133167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>gain vs frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$49:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$49:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.2285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0285714285714287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82857142857142851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31428571428571433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7142857142857148E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F6C-4166-8948-608D23985EC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="359144687"/>
+        <c:axId val="659168991"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="359144687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659168991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="659168991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359144687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -2559,18 +5343,24 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>143732</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7462464" y="8043922"/>
-        <a:ext cx="4679259" cy="2424911"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2589,18 +5379,24 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>81139</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3"/>
+        <xdr:cNvPr id="3" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12602028" y="7981329"/>
-        <a:ext cx="4623504" cy="2424911"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2619,18 +5415,24 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>32686</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7462464" y="10342066"/>
-        <a:ext cx="4679259" cy="2424911"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2649,18 +5451,24 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>142178</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12602028" y="10279473"/>
-        <a:ext cx="4623504" cy="2424911"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2668,29 +5476,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>55075</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>22475</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>444735</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>48452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3905</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>69945</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>402224</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>673</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 1"/>
+        <xdr:cNvPr id="6" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="728175" y="15574895"/>
-        <a:ext cx="4673231" cy="2424911"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2709,18 +5523,24 @@
       <xdr:row>87</xdr:row>
       <xdr:rowOff>125514</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 3"/>
+        <xdr:cNvPr id="7" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12517856" y="12704384"/>
-        <a:ext cx="4623505" cy="2424911"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2739,18 +5559,132 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>24976</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 1"/>
+        <xdr:cNvPr id="8" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7589408" y="12969606"/>
-        <a:ext cx="4708225" cy="2424911"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>497899</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F770E542-F7D7-6D71-F4C4-1EA8709C3910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>311729</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>398320</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>90054</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59DFD203-A8DC-4CB3-50AC-D298510A1AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>579664</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>166006</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C903806B-FE15-CEB8-2277-83F2B87D1B21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2760,7 +5694,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -2962,7 +5896,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2980,7 +5914,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3009,7 +5943,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3034,7 +5968,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3059,7 +5993,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3084,7 +6018,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3109,7 +6043,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3134,7 +6068,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3159,7 +6093,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3184,7 +6118,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3209,7 +6143,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3222,9 +6156,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3241,7 +6181,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3259,7 +6199,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3284,7 +6224,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3309,7 +6249,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3334,7 +6274,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3359,7 +6299,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3384,7 +6324,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3409,7 +6349,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3434,7 +6374,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3459,7 +6399,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3484,7 +6424,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3497,9 +6437,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3513,7 +6459,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3531,7 +6477,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3560,7 +6506,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3585,7 +6531,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3610,7 +6556,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3635,7 +6581,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3660,7 +6606,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3685,7 +6631,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3710,7 +6656,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3735,7 +6681,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3760,7 +6706,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3773,37 +6719,46 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.47265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="23" width="8.85156" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="24" width="8.83984375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -3829,14 +6784,14 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3"/>
@@ -3860,16 +6815,16 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>0.1</v>
       </c>
       <c r="B3" s="5">
-        <f>-2*A3</f>
+        <f t="shared" ref="B3:B9" si="0">-2*A3</f>
         <v>-0.2</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.196</v>
+        <v>-0.19600000000000001</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3892,16 +6847,16 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>1.5</v>
       </c>
       <c r="B4" s="5">
-        <f>-2*A4</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="C4" s="6">
-        <v>-2.987</v>
+        <v>-2.9870000000000001</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3924,12 +6879,12 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <f>-2*A5</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="C5" s="6">
@@ -3956,16 +6911,16 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>2.5</v>
       </c>
       <c r="B6" s="5">
-        <f>-2*A6</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="C6" s="6">
-        <v>-4.981</v>
+        <v>-4.9809999999999999</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3988,16 +6943,16 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <f>-2*A7</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="C7" s="6">
-        <v>-5.978</v>
+        <v>-5.9779999999999998</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -4020,12 +6975,12 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <f>-2*A8</f>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="C8" s="6">
@@ -4052,16 +7007,16 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <f>-2*A9</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="C9" s="6">
-        <v>-9.961</v>
+        <v>-9.9610000000000003</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -4084,7 +7039,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4109,8 +7064,8 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
@@ -4136,14 +7091,14 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="3"/>
@@ -4167,13 +7122,13 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
+    <row r="13" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>0.1</v>
       </c>
       <c r="B13" s="5">
-        <f>3*A13</f>
-        <v>0.3</v>
+        <f t="shared" ref="B13:B19" si="1">3*A13</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="C13" s="5">
         <v>0.309</v>
@@ -4199,16 +7154,16 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
+    <row r="14" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>1.5</v>
       </c>
       <c r="B14" s="5">
-        <f>3*A14</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="C14" s="5">
-        <v>4.528</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4231,16 +7186,16 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
+    <row r="15" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>2</v>
       </c>
       <c r="B15" s="5">
-        <f>3*A15</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C15" s="5">
-        <v>6.059</v>
+        <v>6.0590000000000002</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4263,16 +7218,16 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
+    <row r="16" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>2.5</v>
       </c>
       <c r="B16" s="5">
-        <f>3*A16</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="C16" s="5">
-        <v>7.567</v>
+        <v>7.5670000000000002</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4295,16 +7250,16 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
+    <row r="17" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>3</v>
       </c>
       <c r="B17" s="5">
-        <f>3*A17</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C17" s="5">
-        <v>9.102</v>
+        <v>9.1020000000000003</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -4327,16 +7282,16 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
+    <row r="18" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>4</v>
       </c>
       <c r="B18" s="5">
-        <f>3*A18</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C18" s="5">
-        <v>12.114</v>
+        <v>12.114000000000001</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4359,12 +7314,12 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
+    <row r="19" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>5</v>
       </c>
       <c r="B19" s="5">
-        <f>3*A19</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C19" s="5">
@@ -4391,7 +7346,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
+    <row r="20" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4416,8 +7371,8 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="3"/>
@@ -4443,14 +7398,14 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="3"/>
@@ -4474,7 +7429,7 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
+    <row r="23" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>0.4</v>
       </c>
@@ -4506,7 +7461,7 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
+    <row r="24" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>0.5</v>
       </c>
@@ -4538,7 +7493,7 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
+    <row r="25" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>0.6</v>
       </c>
@@ -4570,7 +7525,7 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
+    <row r="26" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>0.8</v>
       </c>
@@ -4602,7 +7557,7 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
+    <row r="27" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -4611,7 +7566,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="5">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -4634,7 +7589,7 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
+    <row r="28" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4659,8 +7614,8 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" t="s" s="2">
+    <row r="29" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="3"/>
@@ -4686,14 +7641,14 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" t="s" s="2">
+    <row r="30" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="3"/>
@@ -4717,13 +7672,13 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
+    <row r="31" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4">
         <v>0.4</v>
       </c>
       <c r="B31" s="5">
         <f>ABS(11*A31)</f>
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C31" s="5">
         <v>4.2</v>
@@ -4749,7 +7704,7 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
+    <row r="32" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4">
         <v>0.5</v>
       </c>
@@ -4781,7 +7736,7 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
+    <row r="33" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>0.6</v>
       </c>
@@ -4813,16 +7768,16 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
+    <row r="34" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>0.8</v>
       </c>
       <c r="B34" s="5">
         <f>ABS(11*A34)</f>
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C34" s="5">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -4845,7 +7800,7 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
+    <row r="35" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -4877,7 +7832,7 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
+    <row r="36" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4902,8 +7857,8 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" t="s" s="2">
+    <row r="37" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="3"/>
@@ -4929,17 +7884,17 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" t="s" s="2">
+    <row r="38" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="3"/>
@@ -4962,7 +7917,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
+    <row r="39" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -4970,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="5">
-        <f>-A39-B39</f>
+        <f t="shared" ref="C39:C45" si="2">-A39-B39</f>
         <v>-1</v>
       </c>
       <c r="D39" s="5">
@@ -4996,7 +7951,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
     </row>
-    <row r="40" ht="13.55" customHeight="1">
+    <row r="40" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="5">
         <v>1</v>
       </c>
@@ -5004,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="5">
-        <f>-A40-B40</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D40" s="5">
@@ -5030,7 +7985,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
+    <row r="41" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5">
         <v>1</v>
       </c>
@@ -5038,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="5">
-        <f>-A41-B41</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="D41" s="5">
@@ -5064,7 +8019,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" ht="13.55" customHeight="1">
+    <row r="42" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5">
         <v>-1</v>
       </c>
@@ -5072,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="5">
-        <f>-A42-B42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D42" s="5">
@@ -5098,7 +8053,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" ht="13.55" customHeight="1">
+    <row r="43" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5">
         <v>3</v>
       </c>
@@ -5106,7 +8061,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="5">
-        <f>-A43-B43</f>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="D43" s="5">
@@ -5132,7 +8087,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" ht="13.55" customHeight="1">
+    <row r="44" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5">
         <v>-2</v>
       </c>
@@ -5140,7 +8095,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="5">
-        <f>-A44-B44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D44" s="5">
@@ -5166,7 +8121,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" ht="13.55" customHeight="1">
+    <row r="45" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5">
         <v>1</v>
       </c>
@@ -5174,7 +8129,7 @@
         <v>-3</v>
       </c>
       <c r="C45" s="5">
-        <f>-A45-B45</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D45" s="5">
@@ -5200,7 +8155,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" ht="13.55" customHeight="1">
+    <row r="46" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5225,8 +8180,8 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" ht="13.55" customHeight="1">
-      <c r="A47" t="s" s="2">
+    <row r="47" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="3"/>
@@ -5252,24 +8207,26 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" ht="13.55" customHeight="1">
-      <c r="A48" t="s" s="2">
+    <row r="48" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" t="s" s="2">
+      <c r="E48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H48" s="3"/>
@@ -5289,22 +8246,24 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" ht="13.55" customHeight="1">
+    <row r="49" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5">
         <v>100</v>
       </c>
       <c r="B49" s="5">
-        <f>G49/F49</f>
-        <v>2.22857142857143</v>
+        <f t="shared" ref="B49:B58" si="3">G49/F49</f>
+        <v>2.2285714285714286</v>
       </c>
       <c r="C49" s="5">
-        <f>20*LOG(G49/F49,10)</f>
-        <v>6.9605311668041</v>
+        <f t="shared" ref="C49:C58" si="4">20*LOG(G49/F49,10)</f>
+        <v>6.9605311668040946</v>
       </c>
       <c r="D49" s="5">
         <v>5.7</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="5">
+        <v>5.7</v>
+      </c>
       <c r="F49" s="5">
         <v>3.5</v>
       </c>
@@ -5328,22 +8287,24 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" ht="13.55" customHeight="1">
+    <row r="50" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5">
         <v>500</v>
       </c>
       <c r="B50" s="5">
-        <f>G50/F50</f>
-        <v>2.16666666666667</v>
+        <f t="shared" si="3"/>
+        <v>2.1666666666666665</v>
       </c>
       <c r="C50" s="5">
-        <f>20*LOG(G50/F50,10)</f>
-        <v>6.71584203846386</v>
+        <f t="shared" si="4"/>
+        <v>6.7158420384638617</v>
       </c>
       <c r="D50" s="5">
         <v>5.5</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="5">
+        <v>5.5</v>
+      </c>
       <c r="F50" s="5">
         <v>3.6</v>
       </c>
@@ -5367,22 +8328,24 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" ht="13.55" customHeight="1">
+    <row r="51" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5">
         <v>5000</v>
       </c>
       <c r="B51" s="5">
-        <f>G51/F51</f>
-        <v>2.08333333333333</v>
+        <f t="shared" si="3"/>
+        <v>2.0833333333333335</v>
       </c>
       <c r="C51" s="5">
-        <f>20*LOG(G51/F51,10)</f>
-        <v>6.37517525248826</v>
+        <f t="shared" si="4"/>
+        <v>6.3751752524882557</v>
       </c>
       <c r="D51" s="5">
         <v>9</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="5">
+        <v>9</v>
+      </c>
       <c r="F51" s="5">
         <v>3.6</v>
       </c>
@@ -5406,22 +8369,24 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" ht="13.55" customHeight="1">
+    <row r="52" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="5">
         <v>10000</v>
       </c>
       <c r="B52" s="5">
-        <f>G52/F52</f>
-        <v>2.08333333333333</v>
+        <f t="shared" si="3"/>
+        <v>2.0833333333333335</v>
       </c>
       <c r="C52" s="5">
-        <f>20*LOG(G52/F52,10)</f>
-        <v>6.37517525248826</v>
+        <f t="shared" si="4"/>
+        <v>6.3751752524882557</v>
       </c>
       <c r="D52" s="5">
         <v>13.5</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="5">
+        <v>13.5</v>
+      </c>
       <c r="F52" s="5">
         <v>3.6</v>
       </c>
@@ -5445,22 +8410,24 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
     </row>
-    <row r="53" ht="13.55" customHeight="1">
+    <row r="53" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="5">
         <v>50000</v>
       </c>
       <c r="B53" s="5">
-        <f>G53/F53</f>
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
       <c r="C53" s="5">
-        <f>20*LOG(G53/F53,10)</f>
-        <v>5.10545010206612</v>
+        <f t="shared" si="4"/>
+        <v>5.1054501020661212</v>
       </c>
       <c r="D53" s="5">
-        <v>148.2</v>
-      </c>
-      <c r="E53" s="3"/>
+        <v>148.19999999999999</v>
+      </c>
+      <c r="E53" s="5">
+        <v>148.19999999999999</v>
+      </c>
       <c r="F53" s="5">
         <v>3.5</v>
       </c>
@@ -5484,22 +8451,24 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
     </row>
-    <row r="54" ht="13.55" customHeight="1">
+    <row r="54" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="5">
         <v>80000</v>
       </c>
       <c r="B54" s="5">
-        <f>G54/F54</f>
-        <v>1.02857142857143</v>
+        <f t="shared" si="3"/>
+        <v>1.0285714285714287</v>
       </c>
       <c r="C54" s="5">
-        <f>20*LOG(G54/F54,10)</f>
-        <v>0.244689128340232</v>
+        <f t="shared" si="4"/>
+        <v>0.2446891283402336</v>
       </c>
       <c r="D54" s="5">
         <v>175.4</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="5">
+        <v>175.4</v>
+      </c>
       <c r="F54" s="5">
         <v>3.5</v>
       </c>
@@ -5523,22 +8492,24 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
     </row>
-    <row r="55" ht="13.55" customHeight="1">
+    <row r="55" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="5">
         <v>100000</v>
       </c>
       <c r="B55" s="5">
-        <f>G55/F55</f>
-        <v>0.828571428571429</v>
+        <f t="shared" si="3"/>
+        <v>0.82857142857142851</v>
       </c>
       <c r="C55" s="5">
-        <f>20*LOG(G55/F55,10)</f>
-        <v>-1.63340092902639</v>
+        <f t="shared" si="4"/>
+        <v>-1.6334009290263916</v>
       </c>
       <c r="D55" s="5">
         <v>177.7</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="5">
+        <v>177.7</v>
+      </c>
       <c r="F55" s="5">
         <v>3.5</v>
       </c>
@@ -5562,27 +8533,30 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
     </row>
-    <row r="56" ht="13.55" customHeight="1">
+    <row r="56" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="5">
         <v>200000</v>
       </c>
       <c r="B56" s="5">
-        <f>G56/F56</f>
-        <v>0.314285714285714</v>
+        <f t="shared" si="3"/>
+        <v>0.31428571428571433</v>
       </c>
       <c r="C56" s="5">
-        <f>20*LOG(G56/F56,10)</f>
-        <v>-10.053507183841</v>
+        <f t="shared" si="4"/>
+        <v>-10.05350718384101</v>
       </c>
       <c r="D56" s="5">
         <v>-169</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3">
+        <f>D56+360</f>
+        <v>191</v>
+      </c>
       <c r="F56" s="5">
         <v>3.5</v>
       </c>
       <c r="G56" s="5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -5601,22 +8575,25 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
     </row>
-    <row r="57" ht="13.55" customHeight="1">
+    <row r="57" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5">
         <v>300000</v>
       </c>
       <c r="B57" s="5">
-        <f>G57/F57</f>
-        <v>0.142857142857143</v>
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C57" s="5">
-        <f>20*LOG(G57/F57,10)</f>
-        <v>-16.9019608002851</v>
+        <f t="shared" si="4"/>
+        <v>-16.901960800285135</v>
       </c>
       <c r="D57" s="5">
-        <v>-154.7</v>
-      </c>
-      <c r="E57" s="3"/>
+        <v>-154.69999999999999</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" ref="E57:E58" si="5">D57+360</f>
+        <v>205.3</v>
+      </c>
       <c r="F57" s="5">
         <v>3.5</v>
       </c>
@@ -5640,22 +8617,25 @@
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
     </row>
-    <row r="58" ht="13.55" customHeight="1">
+    <row r="58" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="5">
         <v>500000</v>
       </c>
       <c r="B58" s="5">
-        <f>G58/F58</f>
-        <v>0.0571428571428571</v>
+        <f t="shared" si="3"/>
+        <v>5.7142857142857148E-2</v>
       </c>
       <c r="C58" s="5">
-        <f>20*LOG(G58/F58,10)</f>
-        <v>-24.8607609737259</v>
+        <f t="shared" si="4"/>
+        <v>-24.860760973725885</v>
       </c>
       <c r="D58" s="5">
         <v>-123</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="3">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
       <c r="F58" s="5">
         <v>3.5</v>
       </c>
@@ -5679,7 +8659,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
     </row>
-    <row r="59" ht="13.55" customHeight="1">
+    <row r="59" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5704,8 +8684,8 @@
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
     </row>
-    <row r="60" ht="13.55" customHeight="1">
-      <c r="A60" t="s" s="2">
+    <row r="60" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="3"/>
@@ -5731,24 +8711,24 @@
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
     </row>
-    <row r="61" ht="13.55" customHeight="1">
-      <c r="A61" t="s" s="2">
+    <row r="61" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="F61" t="s" s="2">
+      <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H61" s="3"/>
@@ -5768,27 +8748,30 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
     </row>
-    <row r="62" ht="13.55" customHeight="1">
+    <row r="62" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="5">
         <v>100</v>
       </c>
       <c r="B62" s="5">
-        <f>G62/F62</f>
-        <v>0.0947368421052632</v>
+        <f t="shared" ref="B62:B71" si="6">G62/F62</f>
+        <v>9.4736842105263161E-2</v>
       </c>
       <c r="C62" s="5">
-        <f>20*LOG10(B62)</f>
-        <v>-20.4696219169905</v>
+        <f t="shared" ref="C62:C71" si="7">20*LOG10(B62)</f>
+        <v>-20.469621916990455</v>
       </c>
       <c r="D62" s="5">
         <v>-334</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3">
+        <f>D62+360</f>
+        <v>26</v>
+      </c>
       <c r="F62" s="5">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G62" s="5">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -5807,27 +8790,30 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
     </row>
-    <row r="63" ht="13.55" customHeight="1">
+    <row r="63" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="5">
         <v>500</v>
       </c>
       <c r="B63" s="5">
-        <f>G63/F63</f>
-        <v>0.0968421052631579</v>
+        <f t="shared" si="6"/>
+        <v>9.6842105263157896E-2</v>
       </c>
       <c r="C63" s="5">
-        <f>20*LOG10(B63)</f>
-        <v>-20.2787155588658</v>
+        <f t="shared" si="7"/>
+        <v>-20.278715558865848</v>
       </c>
       <c r="D63" s="5">
         <v>-423</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="3">
+        <f>D63+360</f>
+        <v>-63</v>
+      </c>
       <c r="F63" s="5">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G63" s="5">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -5846,24 +8832,27 @@
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
     </row>
-    <row r="64" ht="13.55" customHeight="1">
+    <row r="64" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="5">
         <v>5000</v>
       </c>
       <c r="B64" s="5">
-        <f>G64/F64</f>
-        <v>0.526315789473684</v>
+        <f t="shared" si="6"/>
+        <v>0.52631578947368418</v>
       </c>
       <c r="C64" s="5">
-        <f>20*LOG10(B64)</f>
-        <v>-5.57507201905658</v>
+        <f t="shared" si="7"/>
+        <v>-5.575072019056579</v>
       </c>
       <c r="D64" s="5">
         <v>-140</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3">
+        <f>D64+180</f>
+        <v>40</v>
+      </c>
       <c r="F64" s="5">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G64" s="6">
         <v>0.25</v>
@@ -5885,27 +8874,29 @@
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
     </row>
-    <row r="65" ht="13.55" customHeight="1">
+    <row r="65" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="5">
         <v>10000</v>
       </c>
       <c r="B65" s="5">
-        <f>G65/F65</f>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="C65" s="5">
-        <f>20*LOG10(B65)</f>
-        <v>5.10545010206612</v>
+        <f t="shared" si="7"/>
+        <v>5.1054501020661212</v>
       </c>
       <c r="D65" s="5">
         <v>0</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
       <c r="F65" s="5">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G65" s="5">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -5924,24 +8915,26 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
     </row>
-    <row r="66" ht="13.55" customHeight="1">
+    <row r="66" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="5">
         <v>50000</v>
       </c>
       <c r="B66" s="5">
-        <f>G66/F66</f>
-        <v>1.81052631578947</v>
+        <f t="shared" si="6"/>
+        <v>1.8105263157894738</v>
       </c>
       <c r="C66" s="5">
-        <f>20*LOG10(B66)</f>
-        <v>5.15609683237401</v>
+        <f t="shared" si="7"/>
+        <v>5.1560968323740228</v>
       </c>
       <c r="D66" s="5">
         <v>-10</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="5">
+        <v>-10</v>
+      </c>
       <c r="F66" s="5">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G66" s="5">
         <v>0.86</v>
@@ -5963,27 +8956,29 @@
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
     </row>
-    <row r="67" ht="13.55" customHeight="1">
+    <row r="67" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="5">
         <v>80000</v>
       </c>
       <c r="B67" s="5">
-        <f>G67/F67</f>
-        <v>1.71578947368421</v>
+        <f t="shared" si="6"/>
+        <v>1.7157894736842105</v>
       </c>
       <c r="C67" s="5">
-        <f>20*LOG10(B67)</f>
-        <v>4.6892799823022</v>
+        <f t="shared" si="7"/>
+        <v>4.6892799823022004</v>
       </c>
       <c r="D67" s="5">
         <v>10</v>
       </c>
-      <c r="E67" s="3"/>
+      <c r="E67" s="5">
+        <v>10</v>
+      </c>
       <c r="F67" s="5">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G67" s="5">
-        <v>0.8149999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -6002,27 +8997,29 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
     </row>
-    <row r="68" ht="13.55" customHeight="1">
+    <row r="68" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="5">
         <v>100000</v>
       </c>
       <c r="B68" s="5">
-        <f>G68/F68</f>
-        <v>1.67368421052632</v>
+        <f t="shared" si="6"/>
+        <v>1.6736842105263159</v>
       </c>
       <c r="C68" s="5">
-        <f>20*LOG10(B68)</f>
-        <v>4.4734703806321</v>
+        <f t="shared" si="7"/>
+        <v>4.473470380632075</v>
       </c>
       <c r="D68" s="5">
         <v>20</v>
       </c>
-      <c r="E68" s="3"/>
+      <c r="E68" s="5">
+        <v>20</v>
+      </c>
       <c r="F68" s="5">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G68" s="5">
-        <v>0.795</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -6041,24 +9038,26 @@
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
     </row>
-    <row r="69" ht="13.55" customHeight="1">
+    <row r="69" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="5">
         <v>200000</v>
       </c>
       <c r="B69" s="5">
-        <f>G69/F69</f>
-        <v>1.31578947368421</v>
+        <f t="shared" si="6"/>
+        <v>1.3157894736842106</v>
       </c>
       <c r="C69" s="5">
-        <f>20*LOG10(B69)</f>
-        <v>2.38372815438417</v>
+        <f t="shared" si="7"/>
+        <v>2.3837281543841735</v>
       </c>
       <c r="D69" s="5">
         <v>42</v>
       </c>
-      <c r="E69" s="3"/>
+      <c r="E69" s="5">
+        <v>42</v>
+      </c>
       <c r="F69" s="5">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G69" s="5">
         <v>0.625</v>
@@ -6080,24 +9079,26 @@
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
     </row>
-    <row r="70" ht="13.55" customHeight="1">
+    <row r="70" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="5">
         <v>300000</v>
       </c>
       <c r="B70" s="5">
-        <f>G70/F70</f>
-        <v>1.03157894736842</v>
+        <f t="shared" si="6"/>
+        <v>1.0315789473684212</v>
       </c>
       <c r="C70" s="5">
-        <f>20*LOG10(B70)</f>
-        <v>0.270049408072933</v>
+        <f t="shared" si="7"/>
+        <v>0.27004940807294264</v>
       </c>
       <c r="D70" s="5">
         <v>54</v>
       </c>
-      <c r="E70" s="3"/>
+      <c r="E70" s="5">
+        <v>54</v>
+      </c>
       <c r="F70" s="5">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G70" s="5">
         <v>0.49</v>
@@ -6119,28 +9120,30 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
     </row>
-    <row r="71" ht="13.55" customHeight="1">
+    <row r="71" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="5">
         <v>500000</v>
       </c>
       <c r="B71" s="5">
-        <f>G71/F71</f>
-        <v>0.705263157894737</v>
+        <f t="shared" si="6"/>
+        <v>0.70526315789473693</v>
       </c>
       <c r="C71" s="5">
-        <f>20*LOG10(B71)</f>
-        <v>-3.03297605176042</v>
+        <f t="shared" si="7"/>
+        <v>-3.0329760517604254</v>
       </c>
       <c r="D71" s="5">
         <v>72</v>
       </c>
-      <c r="E71" s="3"/>
+      <c r="E71" s="5">
+        <v>72</v>
+      </c>
       <c r="F71" s="5">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G71" s="5">
         <f>0.67/2</f>
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -6159,7 +9162,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
     </row>
-    <row r="72" ht="13.55" customHeight="1">
+    <row r="72" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6184,8 +9187,8 @@
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
     </row>
-    <row r="73" ht="13.55" customHeight="1">
-      <c r="A73" t="s" s="2">
+    <row r="73" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="3"/>
@@ -6211,24 +9214,24 @@
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
     </row>
-    <row r="74" ht="13.55" customHeight="1">
-      <c r="A74" t="s" s="2">
+    <row r="74" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" t="s" s="2">
+      <c r="F74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H74" s="3"/>
@@ -6248,27 +9251,29 @@
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
     </row>
-    <row r="75" ht="13.55" customHeight="1">
+    <row r="75" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="5">
         <v>500</v>
       </c>
       <c r="B75" s="5">
-        <f>G75/F75</f>
-        <v>0.0466666666666667</v>
+        <f t="shared" ref="B75:B84" si="8">G75/F75</f>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="C75" s="5">
-        <f>20*LOG10(B75)</f>
-        <v>-26.6198643808285</v>
+        <f t="shared" ref="C75:C84" si="9">20*LOG10(B75)</f>
+        <v>-26.619864380828488</v>
       </c>
       <c r="D75" s="5">
         <v>134</v>
       </c>
-      <c r="E75" s="3"/>
+      <c r="E75" s="5">
+        <v>134</v>
+      </c>
       <c r="F75" s="5">
         <v>3</v>
       </c>
       <c r="G75" s="5">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -6287,22 +9292,24 @@
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
     </row>
-    <row r="76" ht="13.55" customHeight="1">
+    <row r="76" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="5">
         <v>1000</v>
       </c>
       <c r="B76" s="5">
-        <f>G76/F76</f>
-        <v>0.07333333333333331</v>
+        <f t="shared" si="8"/>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="C76" s="5">
-        <f>20*LOG10(B76)</f>
-        <v>-22.6939714779491</v>
+        <f t="shared" si="9"/>
+        <v>-22.693971477949123</v>
       </c>
       <c r="D76" s="5">
         <v>130</v>
       </c>
-      <c r="E76" s="3"/>
+      <c r="E76" s="5">
+        <v>130</v>
+      </c>
       <c r="F76" s="5">
         <v>3</v>
       </c>
@@ -6326,22 +9333,24 @@
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
     </row>
-    <row r="77" ht="13.55" customHeight="1">
+    <row r="77" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5">
         <v>10000</v>
       </c>
       <c r="B77" s="5">
-        <f>G77/F77</f>
-        <v>0.423333333333333</v>
+        <f t="shared" si="8"/>
+        <v>0.42333333333333334</v>
       </c>
       <c r="C77" s="5">
-        <f>20*LOG10(B77)</f>
-        <v>-7.46635067527412</v>
+        <f t="shared" si="9"/>
+        <v>-7.4663506752741116</v>
       </c>
       <c r="D77" s="5">
         <v>120</v>
       </c>
-      <c r="E77" s="3"/>
+      <c r="E77" s="5">
+        <v>120</v>
+      </c>
       <c r="F77" s="5">
         <v>3</v>
       </c>
@@ -6365,22 +9374,24 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
     </row>
-    <row r="78" ht="13.55" customHeight="1">
+    <row r="78" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5">
         <v>20000</v>
       </c>
       <c r="B78" s="5">
-        <f>G78/F78</f>
-        <v>0.666666666666667</v>
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C78" s="5">
-        <f>20*LOG10(B78)</f>
-        <v>-3.52182518111362</v>
+        <f t="shared" si="9"/>
+        <v>-3.5218251811136252</v>
       </c>
       <c r="D78" s="5">
         <v>140</v>
       </c>
-      <c r="E78" s="3"/>
+      <c r="E78" s="5">
+        <v>140</v>
+      </c>
       <c r="F78" s="5">
         <v>3</v>
       </c>
@@ -6404,22 +9415,24 @@
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
     </row>
-    <row r="79" ht="13.55" customHeight="1">
+    <row r="79" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5">
         <v>50000</v>
       </c>
       <c r="B79" s="5">
-        <f>G79/F79</f>
-        <v>0.936666666666667</v>
+        <f t="shared" si="8"/>
+        <v>0.93666666666666665</v>
       </c>
       <c r="C79" s="5">
-        <f>20*LOG10(B79)</f>
-        <v>-0.568298696291648</v>
+        <f t="shared" si="9"/>
+        <v>-0.56829869629165108</v>
       </c>
       <c r="D79" s="5">
         <v>180</v>
       </c>
-      <c r="E79" s="3"/>
+      <c r="E79" s="5">
+        <v>180</v>
+      </c>
       <c r="F79" s="5">
         <v>3</v>
       </c>
@@ -6443,22 +9456,25 @@
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
     </row>
-    <row r="80" ht="13.55" customHeight="1">
+    <row r="80" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="5">
         <v>80000</v>
       </c>
       <c r="B80" s="5">
-        <f>G80/F80</f>
-        <v>0.916666666666667</v>
+        <f t="shared" si="8"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C80" s="5">
-        <f>20*LOG10(B80)</f>
-        <v>-0.7557712177879931</v>
+        <f t="shared" si="9"/>
+        <v>-0.75577121778799605</v>
       </c>
       <c r="D80" s="5">
         <v>-150</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3">
+        <f>360+D80</f>
+        <v>210</v>
+      </c>
       <c r="F80" s="5">
         <v>3</v>
       </c>
@@ -6482,22 +9498,25 @@
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
     </row>
-    <row r="81" ht="13.55" customHeight="1">
+    <row r="81" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5">
         <v>100000</v>
       </c>
       <c r="B81" s="5">
-        <f>G81/F81</f>
-        <v>0.833333333333333</v>
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C81" s="5">
-        <f>20*LOG10(B81)</f>
-        <v>-1.5836249209525</v>
+        <f t="shared" si="9"/>
+        <v>-1.583624920952496</v>
       </c>
       <c r="D81" s="5">
         <v>-140</v>
       </c>
-      <c r="E81" s="3"/>
+      <c r="E81" s="3">
+        <f t="shared" ref="E81:E84" si="10">360+D81</f>
+        <v>220</v>
+      </c>
       <c r="F81" s="5">
         <v>3</v>
       </c>
@@ -6521,22 +9540,25 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
     </row>
-    <row r="82" ht="13.55" customHeight="1">
+    <row r="82" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="5">
         <v>200000</v>
       </c>
       <c r="B82" s="5">
-        <f>G82/F82</f>
-        <v>0.543333333333333</v>
+        <f t="shared" si="8"/>
+        <v>0.54333333333333333</v>
       </c>
       <c r="C82" s="5">
-        <f>20*LOG10(B82)</f>
-        <v>-5.2986730063141</v>
+        <f t="shared" si="9"/>
+        <v>-5.2986730063140932</v>
       </c>
       <c r="D82" s="5">
         <v>-120</v>
       </c>
-      <c r="E82" s="3"/>
+      <c r="E82" s="3">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
       <c r="F82" s="5">
         <v>3</v>
       </c>
@@ -6560,27 +9582,30 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
     </row>
-    <row r="83" ht="13.55" customHeight="1">
+    <row r="83" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="5">
         <v>500000</v>
       </c>
       <c r="B83" s="5">
-        <f>G83/F83</f>
+        <f t="shared" si="8"/>
         <v>0.27</v>
       </c>
       <c r="C83" s="5">
-        <f>20*LOG10(B83)</f>
-        <v>-11.3727247168203</v>
+        <f t="shared" si="9"/>
+        <v>-11.372724716820253</v>
       </c>
       <c r="D83" s="5">
         <v>-80</v>
       </c>
-      <c r="E83" s="3"/>
+      <c r="E83" s="3">
+        <f t="shared" si="10"/>
+        <v>280</v>
+      </c>
       <c r="F83" s="5">
         <v>3</v>
       </c>
       <c r="G83" s="5">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -6599,22 +9624,25 @@
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
     </row>
-    <row r="84" ht="13.55" customHeight="1">
+    <row r="84" spans="1:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="5">
         <v>1000000</v>
       </c>
       <c r="B84" s="5">
-        <f>G84/F84</f>
-        <v>0.146666666666667</v>
+        <f t="shared" si="8"/>
+        <v>0.14666666666666667</v>
       </c>
       <c r="C84" s="5">
-        <f>20*LOG10(B84)</f>
-        <v>-16.6733715646695</v>
+        <f t="shared" si="9"/>
+        <v>-16.673371564669498</v>
       </c>
       <c r="D84" s="5">
         <v>-50</v>
       </c>
-      <c r="E84" s="3"/>
+      <c r="E84" s="3">
+        <f t="shared" si="10"/>
+        <v>310</v>
+      </c>
       <c r="F84" s="5">
         <v>3</v>
       </c>
@@ -6640,7 +9668,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
